--- a/Backend/Model Metrics/classification_report_rfc_vaso.xlsx
+++ b/Backend/Model Metrics/classification_report_rfc_vaso.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9145299145299145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9145299145299145</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9082969432314411</v>
+        <v>0.9145299145299145</v>
       </c>
       <c r="E2" t="n">
         <v>117</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8976377952755905</v>
+        <v>0.9180327868852459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9344262295081968</v>
+        <v>0.9180327868852459</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9156626506024096</v>
+        <v>0.9180327868852459</v>
       </c>
       <c r="E3" t="n">
         <v>122</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9121338912133892</v>
+        <v>0.9163179916317992</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9121338912133892</v>
+        <v>0.9163179916317992</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9121338912133892</v>
+        <v>0.9163179916317992</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9121338912133892</v>
+        <v>0.9163179916317992</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9131046119235096</v>
+        <v>0.9162813507075802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9116575591985427</v>
+        <v>0.9162813507075802</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9119797969169253</v>
+        <v>0.9162813507075802</v>
       </c>
       <c r="E5" t="n">
         <v>239</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9127810383534695</v>
+        <v>0.9163179916317992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9121338912133892</v>
+        <v>0.9163179916317992</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9120568440651572</v>
+        <v>0.9163179916317992</v>
       </c>
       <c r="E6" t="n">
         <v>239</v>
